--- a/dados/historico/times/rodada_26/Internacional.xlsx
+++ b/dados/historico/times/rodada_26/Internacional.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E5" t="n">
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E8" t="n">
+        <v>15</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2028,7 +2014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2045,10 +2031,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E9" t="n">
+        <v>17</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2214,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2231,10 +2215,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E10" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2400,7 +2382,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2417,10 +2399,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2603,10 +2583,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E12" t="n">
+        <v>23</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2772,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2789,10 +2767,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E13" t="n">
+        <v>25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2958,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2975,10 +2951,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3144,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3161,10 +3135,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E15" t="n">
+        <v>19</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3349,10 +3321,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E16" t="n">
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3518,7 +3488,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3535,10 +3505,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E17" t="n">
+        <v>7</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3706,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3723,10 +3691,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E18" t="n">
+        <v>21</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3892,7 +3858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3909,10 +3875,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4080,7 +4044,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4097,10 +4061,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E20" t="n">
+        <v>14</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4264,7 +4226,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4281,10 +4243,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E21" t="n">
+        <v>24</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4450,7 +4410,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4467,10 +4427,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E22" t="n">
+        <v>6</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4638,7 +4596,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4655,10 +4613,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E23" t="n">
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4826,7 +4782,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4843,10 +4799,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E24" t="n">
+        <v>9</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5014,7 +4968,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5031,10 +4985,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E25" t="n">
+        <v>22</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5200,7 +5152,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5217,10 +5169,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E26" t="n">
+        <v>11</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5388,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5405,10 +5355,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E27" t="n">
+        <v>12</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Internacional.xlsx
+++ b/dados/historico/times/rodada_26/Internacional.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>463</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>478</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
